--- a/P9_NaiveBayes/Clasificador_NaiveBayes.xlsx
+++ b/P9_NaiveBayes/Clasificador_NaiveBayes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Dropbox/FIT-UAT-2025-3/MCC_3A_2025_3/TecnicasCienciasComputacionales/NaiveBayes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97044B45-FFD2-CE47-B74F-0CA8BA0F01D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1A59FA-3CA0-AD42-AFC2-2BE7ED825722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="2160" windowWidth="29340" windowHeight="15880" xr2:uid="{D6D03D2D-4EC2-4138-965E-A5F320404305}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="26240" windowHeight="16380" xr2:uid="{D6D03D2D-4EC2-4138-965E-A5F320404305}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -335,12 +335,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,6 +343,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984AB4E2-D331-4123-90D5-78ADE1CC23FD}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,14 +684,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1011,13 +1011,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
@@ -1367,22 +1367,22 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="18"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="3" t="s">
         <v>9</v>
       </c>
@@ -1391,28 +1391,28 @@
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="18"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="18"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="18"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
@@ -1424,22 +1424,22 @@
       <c r="D59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16" t="s">
+      <c r="F59" s="14"/>
+      <c r="G59" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16" t="s">
+      <c r="H59" s="14"/>
+      <c r="I59" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16" t="s">
+      <c r="J59" s="14"/>
+      <c r="K59" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="16"/>
+      <c r="L59" s="14"/>
     </row>
     <row r="60" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C60" s="8" t="s">
@@ -1449,26 +1449,26 @@
         <f>D26</f>
         <v>0.6428571428571429</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="18">
         <f>E31</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="15">
+      <c r="F60" s="14"/>
+      <c r="G60" s="18">
         <f>J37</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="15">
+      <c r="H60" s="14"/>
+      <c r="I60" s="18">
         <f>E42</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="15">
+      <c r="J60" s="14"/>
+      <c r="K60" s="18">
         <f>J45</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L60" s="16"/>
+      <c r="L60" s="14"/>
       <c r="M60" s="2" t="s">
         <v>45</v>
       </c>
@@ -1481,22 +1481,22 @@
       <c r="D62" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16" t="s">
+      <c r="F62" s="14"/>
+      <c r="G62" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16" t="s">
+      <c r="H62" s="14"/>
+      <c r="I62" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16" t="s">
+      <c r="J62" s="14"/>
+      <c r="K62" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L62" s="16"/>
+      <c r="L62" s="14"/>
     </row>
     <row r="63" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C63" s="8" t="s">
@@ -1506,26 +1506,26 @@
         <f>D27</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="18">
         <f>E32</f>
         <v>0.6</v>
       </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="15">
+      <c r="F63" s="14"/>
+      <c r="G63" s="18">
         <f>J38</f>
         <v>0.2</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="15">
+      <c r="H63" s="14"/>
+      <c r="I63" s="18">
         <f>E43</f>
         <v>0.8</v>
       </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="15">
+      <c r="J63" s="14"/>
+      <c r="K63" s="18">
         <f>J46</f>
         <v>0.6</v>
       </c>
-      <c r="L63" s="16"/>
+      <c r="L63" s="14"/>
       <c r="M63" s="2" t="s">
         <v>45</v>
       </c>
@@ -1544,10 +1544,10 @@
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="14"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="6">
         <f>N60/N65</f>
         <v>0.20458265139116202</v>
@@ -1557,10 +1557,10 @@
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="3:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="12">
         <f>N63/N65</f>
         <v>0.79541734860883795</v>
@@ -1580,17 +1580,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="G60:H60"/>
@@ -1605,6 +1594,17 @@
     <mergeCell ref="I63:J63"/>
     <mergeCell ref="K63:L63"/>
     <mergeCell ref="C67:D67"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1625,13 +1625,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1662,10 +1662,10 @@
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="6" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="7" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="8" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1798,22 +1798,22 @@
       <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1827,26 +1827,26 @@
         <f>Hoja1!D26</f>
         <v>0.6428571428571429</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="18">
         <f>Hoja1!E34</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15">
+      <c r="F13" s="14"/>
+      <c r="G13" s="18">
         <f>Hoja1!J37</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15">
+      <c r="H13" s="14"/>
+      <c r="I13" s="18">
         <f>Hoja1!E45</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15">
+      <c r="J13" s="14"/>
+      <c r="K13" s="18">
         <f>Hoja1!J45</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1878,22 +1878,22 @@
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1907,26 +1907,26 @@
         <f>Hoja1!D27</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="18">
         <f>Hoja1!E35</f>
         <v>0</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15">
+      <c r="F16" s="14"/>
+      <c r="G16" s="18">
         <f>Hoja1!J38</f>
         <v>0.2</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15">
+      <c r="H16" s="14"/>
+      <c r="I16" s="18">
         <f>Hoja1!E46</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15">
+      <c r="J16" s="14"/>
+      <c r="K16" s="18">
         <f>Hoja1!J46</f>
         <v>0.6</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="20" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="6">
         <f>N13/N18</f>
         <v>1</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="22" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="12">
         <f>N16/N18</f>
         <v>0</v>
@@ -2088,16 +2088,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
@@ -2106,11 +2101,16 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/P9_NaiveBayes/Clasificador_NaiveBayes.xlsx
+++ b/P9_NaiveBayes/Clasificador_NaiveBayes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Dropbox/FIT-UAT-2025-3/MCC_3A_2025_3/TecnicasCienciasComputacionales/NaiveBayes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Dropbox/FIT-UAT-2025-3/DCC_1A_2025_3/Servicios_Tecnologias_Servicios_Ubicuos/P9_NaiveBayes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1A59FA-3CA0-AD42-AFC2-2BE7ED825722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4A59C3-3F9B-FA49-A0EA-A614F2F94F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="26240" windowHeight="16380" xr2:uid="{D6D03D2D-4EC2-4138-965E-A5F320404305}"/>
+    <workbookView xWindow="1140" yWindow="1020" windowWidth="26240" windowHeight="16380" xr2:uid="{D6D03D2D-4EC2-4138-965E-A5F320404305}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -335,6 +335,12 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,12 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984AB4E2-D331-4123-90D5-78ADE1CC23FD}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,14 +684,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1011,13 +1011,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
@@ -1078,12 +1078,11 @@
         <v>20</v>
       </c>
       <c r="D31" s="2">
-        <f>COUNTIFS(B7:B20,"Soleado",F7:F20,"Si")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="6">
         <f>D31/$C$26</f>
-        <v>0.22222222222222221</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>12</v>
@@ -1367,22 +1366,22 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="3" t="s">
         <v>9</v>
       </c>
@@ -1391,28 +1390,28 @@
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="16"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
@@ -1424,22 +1423,22 @@
       <c r="D59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14" t="s">
+      <c r="H59" s="16"/>
+      <c r="I59" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14" t="s">
+      <c r="J59" s="16"/>
+      <c r="K59" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="14"/>
+      <c r="L59" s="16"/>
     </row>
     <row r="60" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C60" s="8" t="s">
@@ -1449,54 +1448,54 @@
         <f>D26</f>
         <v>0.6428571428571429</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="15">
         <f>E31</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="18">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="15">
         <f>J37</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="18">
+      <c r="H60" s="16"/>
+      <c r="I60" s="15">
         <f>E42</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="18">
+      <c r="J60" s="16"/>
+      <c r="K60" s="15">
         <f>J45</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L60" s="14"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N60" s="7">
         <f>D60*E60*G60*I60*K60</f>
-        <v>5.2910052910052907E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D62" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14" t="s">
+      <c r="F62" s="16"/>
+      <c r="G62" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14" t="s">
+      <c r="H62" s="16"/>
+      <c r="I62" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14" t="s">
+      <c r="J62" s="16"/>
+      <c r="K62" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L62" s="14"/>
+      <c r="L62" s="16"/>
     </row>
     <row r="63" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C63" s="8" t="s">
@@ -1506,26 +1505,26 @@
         <f>D27</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="15">
         <f>E32</f>
         <v>0.6</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="18">
+      <c r="F63" s="16"/>
+      <c r="G63" s="15">
         <f>J38</f>
         <v>0.2</v>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="18">
+      <c r="H63" s="16"/>
+      <c r="I63" s="15">
         <f>E43</f>
         <v>0.8</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="18">
+      <c r="J63" s="16"/>
+      <c r="K63" s="15">
         <f>J46</f>
         <v>0.6</v>
       </c>
-      <c r="L63" s="14"/>
+      <c r="L63" s="16"/>
       <c r="M63" s="2" t="s">
         <v>45</v>
       </c>
@@ -1540,30 +1539,30 @@
       </c>
       <c r="N65" s="6">
         <f>N60+N63</f>
-        <v>2.5862433862433861E-2</v>
+        <v>2.057142857142857E-2</v>
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="17"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="6">
         <f>N60/N65</f>
-        <v>0.20458265139116202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="3:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="17"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="12">
         <f>N63/N65</f>
-        <v>0.79541734860883795</v>
+        <v>1</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>50</v>
@@ -1580,6 +1579,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="G60:H60"/>
@@ -1594,17 +1604,6 @@
     <mergeCell ref="I63:J63"/>
     <mergeCell ref="K63:L63"/>
     <mergeCell ref="C67:D67"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1625,13 +1624,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1662,10 +1661,10 @@
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1684,10 +1683,10 @@
     </row>
     <row r="6" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1704,10 +1703,10 @@
     </row>
     <row r="7" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1724,10 +1723,10 @@
     </row>
     <row r="8" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1798,22 +1797,22 @@
       <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1827,26 +1826,26 @@
         <f>Hoja1!D26</f>
         <v>0.6428571428571429</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <f>Hoja1!E34</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="18">
+      <c r="F13" s="16"/>
+      <c r="G13" s="15">
         <f>Hoja1!J37</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="18">
+      <c r="H13" s="16"/>
+      <c r="I13" s="15">
         <f>Hoja1!E45</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="18">
+      <c r="J13" s="16"/>
+      <c r="K13" s="15">
         <f>Hoja1!J45</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1878,22 +1877,22 @@
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="14"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1907,26 +1906,26 @@
         <f>Hoja1!D27</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <f>Hoja1!E35</f>
         <v>0</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="18">
+      <c r="F16" s="16"/>
+      <c r="G16" s="15">
         <f>Hoja1!J38</f>
         <v>0.2</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="18">
+      <c r="H16" s="16"/>
+      <c r="I16" s="15">
         <f>Hoja1!E46</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="18">
+      <c r="J16" s="16"/>
+      <c r="K16" s="15">
         <f>Hoja1!J46</f>
         <v>0.6</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1991,10 +1990,10 @@
     </row>
     <row r="20" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="6">
         <f>N13/N18</f>
         <v>1</v>
@@ -2028,10 +2027,10 @@
     </row>
     <row r="22" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="12">
         <f>N16/N18</f>
         <v>0</v>
@@ -2088,11 +2087,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
@@ -2101,16 +2105,11 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
